--- a/artfynd/A 18948-2023.xlsx
+++ b/artfynd/A 18948-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110263116</v>
+        <v>112495193</v>
       </c>
       <c r="B2" t="n">
-        <v>89967</v>
+        <v>90835</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,42 +692,44 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1179</v>
+        <v>5964</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Djupån, Jmt</t>
+          <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>521540.5487865679</v>
+        <v>521385</v>
       </c>
       <c r="R2" t="n">
-        <v>7077430.142038374</v>
+        <v>7077670</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -751,22 +753,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -775,21 +767,3175 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112495156</v>
+      </c>
+      <c r="B3" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>521387</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7077693</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112495157</v>
+      </c>
+      <c r="B4" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>521286</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7077616</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112495162</v>
+      </c>
+      <c r="B5" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>522094</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7077617</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112495189</v>
+      </c>
+      <c r="B6" t="n">
+        <v>89571</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>522081</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7077601</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112495159</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>521837</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7077579</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112495160</v>
+      </c>
+      <c r="B8" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>521847</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7077543</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>110263116</v>
+      </c>
+      <c r="B9" t="n">
+        <v>89967</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1179</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Gräddticka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Perenniporia subacida</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Peck) Donk</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Djupån, Jmt</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>521540.5487865679</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7077430.142038374</v>
+      </c>
+      <c r="S9" t="n">
+        <v>25</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
           <t>Rashid Kadhim</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AX9" t="inlineStr">
         <is>
           <t>Rashid Kadhim, Hugo Ström</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112495158</v>
+      </c>
+      <c r="B10" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>521432</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7077482</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112495178</v>
+      </c>
+      <c r="B11" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>522768</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7077362</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112495180</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90857</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>522427</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7077371</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112495185</v>
+      </c>
+      <c r="B13" t="n">
+        <v>89549</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>522105</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7077442</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112495176</v>
+      </c>
+      <c r="B14" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>522488</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7077304</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112495165</v>
+      </c>
+      <c r="B15" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>522086</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7077322</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112495190</v>
+      </c>
+      <c r="B16" t="n">
+        <v>89571</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>522469</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7077316</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112495172</v>
+      </c>
+      <c r="B17" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>522109</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7077299</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112495167</v>
+      </c>
+      <c r="B18" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>522205</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7077260</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112495173</v>
+      </c>
+      <c r="B19" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>522099</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7077313</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112495166</v>
+      </c>
+      <c r="B20" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>522179</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7077220</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112495175</v>
+      </c>
+      <c r="B21" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>522441</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7077389</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112495171</v>
+      </c>
+      <c r="B22" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>522120</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7077301</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112495182</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90826</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>522424</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7077374</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112495164</v>
+      </c>
+      <c r="B24" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>522103</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7077453</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112495188</v>
+      </c>
+      <c r="B25" t="n">
+        <v>89549</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>522460</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7077294</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112495187</v>
+      </c>
+      <c r="B26" t="n">
+        <v>89549</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>522100</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7077317</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112495168</v>
+      </c>
+      <c r="B27" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>522175</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7077257</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112495174</v>
+      </c>
+      <c r="B28" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>522448</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7077421</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112495191</v>
+      </c>
+      <c r="B29" t="n">
+        <v>90799</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Grantaggsvamp</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Bankera violascens</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>522424</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7077382</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112495170</v>
+      </c>
+      <c r="B30" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>522164</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7077256</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112495169</v>
+      </c>
+      <c r="B31" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>holmflobackarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>522163</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7077259</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Ström</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 18948-2023.xlsx
+++ b/artfynd/A 18948-2023.xlsx
@@ -1221,7 +1221,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112495159</v>
+        <v>112495160</v>
       </c>
       <c r="B7" t="n">
         <v>56430</v>
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>521837</v>
+        <v>521847</v>
       </c>
       <c r="R7" t="n">
-        <v>7077579</v>
+        <v>7077543</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112495160</v>
+        <v>112495159</v>
       </c>
       <c r="B8" t="n">
         <v>56430</v>
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>521847</v>
+        <v>521837</v>
       </c>
       <c r="R8" t="n">
-        <v>7077543</v>
+        <v>7077579</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112495180</v>
+        <v>112495164</v>
       </c>
       <c r="B12" t="n">
-        <v>90857</v>
+        <v>56430</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1794,26 +1794,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5448</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1821,10 +1822,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>522427</v>
+        <v>522103</v>
       </c>
       <c r="R12" t="n">
-        <v>7077371</v>
+        <v>7077453</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1859,13 +1860,17 @@
           <t>2023-10-02</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1884,10 +1889,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112495185</v>
+        <v>112495168</v>
       </c>
       <c r="B13" t="n">
-        <v>89549</v>
+        <v>56430</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1900,34 +1905,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>522105</v>
+        <v>522175</v>
       </c>
       <c r="R13" t="n">
-        <v>7077442</v>
+        <v>7077257</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1960,6 +1969,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1986,10 +2000,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112495176</v>
+        <v>112495188</v>
       </c>
       <c r="B14" t="n">
-        <v>56430</v>
+        <v>89549</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2002,38 +2016,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>522488</v>
+        <v>522460</v>
       </c>
       <c r="R14" t="n">
-        <v>7077304</v>
+        <v>7077294</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2066,11 +2076,6 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2097,10 +2102,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112495165</v>
+        <v>112495191</v>
       </c>
       <c r="B15" t="n">
-        <v>56430</v>
+        <v>90799</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2113,38 +2118,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>1968</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>522086</v>
+        <v>522424</v>
       </c>
       <c r="R15" t="n">
-        <v>7077322</v>
+        <v>7077382</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2177,11 +2178,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2208,10 +2204,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112495190</v>
+        <v>112495170</v>
       </c>
       <c r="B16" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2224,34 +2220,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>522469</v>
+        <v>522164</v>
       </c>
       <c r="R16" t="n">
-        <v>7077316</v>
+        <v>7077256</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2284,6 +2284,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2310,7 +2315,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112495172</v>
+        <v>112495166</v>
       </c>
       <c r="B17" t="n">
         <v>56430</v>
@@ -2354,10 +2359,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>522109</v>
+        <v>522179</v>
       </c>
       <c r="R17" t="n">
-        <v>7077299</v>
+        <v>7077220</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2394,7 +2399,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2421,10 +2426,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112495167</v>
+        <v>112495185</v>
       </c>
       <c r="B18" t="n">
-        <v>56430</v>
+        <v>89549</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2437,38 +2442,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>522205</v>
+        <v>522105</v>
       </c>
       <c r="R18" t="n">
-        <v>7077260</v>
+        <v>7077442</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2501,11 +2502,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2532,7 +2528,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112495173</v>
+        <v>112495165</v>
       </c>
       <c r="B19" t="n">
         <v>56430</v>
@@ -2576,10 +2572,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>522099</v>
+        <v>522086</v>
       </c>
       <c r="R19" t="n">
-        <v>7077313</v>
+        <v>7077322</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2616,7 +2612,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2643,7 +2639,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112495166</v>
+        <v>112495167</v>
       </c>
       <c r="B20" t="n">
         <v>56430</v>
@@ -2687,10 +2683,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>522179</v>
+        <v>522205</v>
       </c>
       <c r="R20" t="n">
-        <v>7077220</v>
+        <v>7077260</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2865,10 +2861,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112495171</v>
+        <v>112495182</v>
       </c>
       <c r="B22" t="n">
-        <v>56430</v>
+        <v>90826</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2877,42 +2873,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>4366</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>522120</v>
+        <v>522424</v>
       </c>
       <c r="R22" t="n">
-        <v>7077301</v>
+        <v>7077374</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2945,11 +2937,6 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2976,10 +2963,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112495182</v>
+        <v>112495190</v>
       </c>
       <c r="B23" t="n">
-        <v>90826</v>
+        <v>89571</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2988,25 +2975,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4366</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3016,10 +3003,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>522424</v>
+        <v>522469</v>
       </c>
       <c r="R23" t="n">
-        <v>7077374</v>
+        <v>7077316</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3078,7 +3065,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112495164</v>
+        <v>112495173</v>
       </c>
       <c r="B24" t="n">
         <v>56430</v>
@@ -3122,10 +3109,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>522103</v>
+        <v>522099</v>
       </c>
       <c r="R24" t="n">
-        <v>7077453</v>
+        <v>7077313</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3162,7 +3149,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3189,10 +3176,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112495188</v>
+        <v>112495176</v>
       </c>
       <c r="B25" t="n">
-        <v>89549</v>
+        <v>56430</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3205,34 +3192,38 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>522460</v>
+        <v>522488</v>
       </c>
       <c r="R25" t="n">
-        <v>7077294</v>
+        <v>7077304</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3265,6 +3256,11 @@
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3393,10 +3389,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112495168</v>
+        <v>112495180</v>
       </c>
       <c r="B27" t="n">
-        <v>56430</v>
+        <v>90857</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3409,27 +3405,26 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>5448</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3437,10 +3432,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>522175</v>
+        <v>522427</v>
       </c>
       <c r="R27" t="n">
-        <v>7077257</v>
+        <v>7077371</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3475,17 +3470,13 @@
           <t>2023-10-02</t>
         </is>
       </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>ringhack</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3615,10 +3606,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112495191</v>
+        <v>112495169</v>
       </c>
       <c r="B29" t="n">
-        <v>90799</v>
+        <v>56430</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3631,34 +3622,38 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1968</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>522424</v>
+        <v>522163</v>
       </c>
       <c r="R29" t="n">
-        <v>7077382</v>
+        <v>7077259</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3691,6 +3686,11 @@
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3717,7 +3717,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112495170</v>
+        <v>112495172</v>
       </c>
       <c r="B30" t="n">
         <v>56430</v>
@@ -3761,10 +3761,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>522164</v>
+        <v>522109</v>
       </c>
       <c r="R30" t="n">
-        <v>7077256</v>
+        <v>7077299</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3828,7 +3828,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112495169</v>
+        <v>112495171</v>
       </c>
       <c r="B31" t="n">
         <v>56430</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>522163</v>
+        <v>522120</v>
       </c>
       <c r="R31" t="n">
-        <v>7077259</v>
+        <v>7077301</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>

--- a/artfynd/A 18948-2023.xlsx
+++ b/artfynd/A 18948-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112495193</v>
+        <v>110263116</v>
       </c>
       <c r="B2" t="n">
-        <v>90835</v>
+        <v>89967</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,44 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5964</v>
+        <v>1179</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Gräddticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Perenniporia subacida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Peck) Donk</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>holmflobackarna, Jmt</t>
+          <t>Djupån, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>521385</v>
+        <v>521540.5487865679</v>
       </c>
       <c r="R2" t="n">
-        <v>7077670</v>
+        <v>7077430.142038374</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -753,12 +751,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-06-21</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -767,26 +775,25 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim, Hugo Ström</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112495156</v>
+        <v>112495165</v>
       </c>
       <c r="B3" t="n">
         <v>56430</v>
@@ -830,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>521387</v>
+        <v>522086</v>
       </c>
       <c r="R3" t="n">
-        <v>7077693</v>
+        <v>7077322</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -870,7 +877,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -897,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112495157</v>
+        <v>112495175</v>
       </c>
       <c r="B4" t="n">
         <v>56430</v>
@@ -941,10 +948,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>521286</v>
+        <v>522441</v>
       </c>
       <c r="R4" t="n">
-        <v>7077616</v>
+        <v>7077389</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1008,10 +1015,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112495162</v>
+        <v>112495191</v>
       </c>
       <c r="B5" t="n">
-        <v>56430</v>
+        <v>90799</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1024,38 +1031,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>1968</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>522094</v>
+        <v>522424</v>
       </c>
       <c r="R5" t="n">
-        <v>7077617</v>
+        <v>7077382</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1088,11 +1091,6 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1119,10 +1117,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112495189</v>
+        <v>112495157</v>
       </c>
       <c r="B6" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1135,34 +1133,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>522081</v>
+        <v>521286</v>
       </c>
       <c r="R6" t="n">
-        <v>7077601</v>
+        <v>7077616</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1195,6 +1197,11 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1221,10 +1228,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112495160</v>
+        <v>112495182</v>
       </c>
       <c r="B7" t="n">
-        <v>56430</v>
+        <v>90826</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1233,42 +1240,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>521847</v>
+        <v>522424</v>
       </c>
       <c r="R7" t="n">
-        <v>7077543</v>
+        <v>7077374</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1301,11 +1304,6 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1332,7 +1330,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112495159</v>
+        <v>112495160</v>
       </c>
       <c r="B8" t="n">
         <v>56430</v>
@@ -1376,10 +1374,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>521837</v>
+        <v>521847</v>
       </c>
       <c r="R8" t="n">
-        <v>7077579</v>
+        <v>7077543</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1443,10 +1441,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110263116</v>
+        <v>112495164</v>
       </c>
       <c r="B9" t="n">
-        <v>89967</v>
+        <v>56430</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1455,42 +1453,45 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1179</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gräddticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Perenniporia subacida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Peck) Donk</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Djupån, Jmt</t>
+          <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>521540.5487865679</v>
+        <v>522103</v>
       </c>
       <c r="R9" t="n">
-        <v>7077430.142038374</v>
+        <v>7077453</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1514,22 +1515,17 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1544,19 +1540,19 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Hugo Ström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112495158</v>
+        <v>112495168</v>
       </c>
       <c r="B10" t="n">
         <v>56430</v>
@@ -1600,10 +1596,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>521432</v>
+        <v>522175</v>
       </c>
       <c r="R10" t="n">
-        <v>7077482</v>
+        <v>7077257</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1640,7 +1636,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1667,10 +1663,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112495178</v>
+        <v>112495189</v>
       </c>
       <c r="B11" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1683,38 +1679,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>522768</v>
+        <v>522081</v>
       </c>
       <c r="R11" t="n">
-        <v>7077362</v>
+        <v>7077601</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1747,11 +1739,6 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1778,7 +1765,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112495164</v>
+        <v>112495166</v>
       </c>
       <c r="B12" t="n">
         <v>56430</v>
@@ -1822,10 +1809,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>522103</v>
+        <v>522179</v>
       </c>
       <c r="R12" t="n">
-        <v>7077453</v>
+        <v>7077220</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1889,7 +1876,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112495168</v>
+        <v>112495178</v>
       </c>
       <c r="B13" t="n">
         <v>56430</v>
@@ -1933,10 +1920,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>522175</v>
+        <v>522768</v>
       </c>
       <c r="R13" t="n">
-        <v>7077257</v>
+        <v>7077362</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1973,7 +1960,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2000,10 +1987,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112495188</v>
+        <v>112495156</v>
       </c>
       <c r="B14" t="n">
-        <v>89549</v>
+        <v>56430</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2016,34 +2003,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>522460</v>
+        <v>521387</v>
       </c>
       <c r="R14" t="n">
-        <v>7077294</v>
+        <v>7077693</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2076,6 +2067,11 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2102,10 +2098,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112495191</v>
+        <v>112495188</v>
       </c>
       <c r="B15" t="n">
-        <v>90799</v>
+        <v>89549</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2118,21 +2114,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1968</v>
+        <v>1108</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2142,10 +2138,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>522424</v>
+        <v>522460</v>
       </c>
       <c r="R15" t="n">
-        <v>7077382</v>
+        <v>7077294</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2204,7 +2200,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112495170</v>
+        <v>112495173</v>
       </c>
       <c r="B16" t="n">
         <v>56430</v>
@@ -2248,10 +2244,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>522164</v>
+        <v>522099</v>
       </c>
       <c r="R16" t="n">
-        <v>7077256</v>
+        <v>7077313</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2288,7 +2284,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2315,7 +2311,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112495166</v>
+        <v>112495169</v>
       </c>
       <c r="B17" t="n">
         <v>56430</v>
@@ -2359,10 +2355,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>522179</v>
+        <v>522163</v>
       </c>
       <c r="R17" t="n">
-        <v>7077220</v>
+        <v>7077259</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2426,10 +2422,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112495185</v>
+        <v>112495170</v>
       </c>
       <c r="B18" t="n">
-        <v>89549</v>
+        <v>56430</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2442,34 +2438,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>522105</v>
+        <v>522164</v>
       </c>
       <c r="R18" t="n">
-        <v>7077442</v>
+        <v>7077256</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2502,6 +2502,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2528,10 +2533,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112495165</v>
+        <v>112495180</v>
       </c>
       <c r="B19" t="n">
-        <v>56430</v>
+        <v>90857</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2544,27 +2549,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5448</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2572,10 +2576,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>522086</v>
+        <v>522427</v>
       </c>
       <c r="R19" t="n">
-        <v>7077322</v>
+        <v>7077371</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2610,17 +2614,13 @@
           <t>2023-10-02</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112495167</v>
+        <v>112495158</v>
       </c>
       <c r="B20" t="n">
         <v>56430</v>
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>522205</v>
+        <v>521432</v>
       </c>
       <c r="R20" t="n">
-        <v>7077260</v>
+        <v>7077482</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112495175</v>
+        <v>112495174</v>
       </c>
       <c r="B21" t="n">
         <v>56430</v>
@@ -2794,10 +2794,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>522441</v>
+        <v>522448</v>
       </c>
       <c r="R21" t="n">
-        <v>7077389</v>
+        <v>7077421</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2861,10 +2861,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112495182</v>
+        <v>112495190</v>
       </c>
       <c r="B22" t="n">
-        <v>90826</v>
+        <v>89571</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2873,25 +2873,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4366</v>
+        <v>5432</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>522424</v>
+        <v>522469</v>
       </c>
       <c r="R22" t="n">
-        <v>7077374</v>
+        <v>7077316</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2963,10 +2963,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112495190</v>
+        <v>112495171</v>
       </c>
       <c r="B23" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2979,34 +2979,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>522469</v>
+        <v>522120</v>
       </c>
       <c r="R23" t="n">
-        <v>7077316</v>
+        <v>7077301</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3039,6 +3043,11 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3065,7 +3074,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112495173</v>
+        <v>112495167</v>
       </c>
       <c r="B24" t="n">
         <v>56430</v>
@@ -3109,10 +3118,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>522099</v>
+        <v>522205</v>
       </c>
       <c r="R24" t="n">
-        <v>7077313</v>
+        <v>7077260</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3149,7 +3158,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3176,10 +3185,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112495176</v>
+        <v>112495193</v>
       </c>
       <c r="B25" t="n">
-        <v>56430</v>
+        <v>90835</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3188,31 +3197,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>5964</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3220,10 +3228,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>522488</v>
+        <v>521385</v>
       </c>
       <c r="R25" t="n">
-        <v>7077304</v>
+        <v>7077670</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3258,17 +3266,13 @@
           <t>2023-10-02</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3287,10 +3291,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112495187</v>
+        <v>112495176</v>
       </c>
       <c r="B26" t="n">
-        <v>89549</v>
+        <v>56430</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3303,34 +3307,38 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>522100</v>
+        <v>522488</v>
       </c>
       <c r="R26" t="n">
-        <v>7077317</v>
+        <v>7077304</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3363,6 +3371,11 @@
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3389,10 +3402,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112495180</v>
+        <v>112495162</v>
       </c>
       <c r="B27" t="n">
-        <v>90857</v>
+        <v>56430</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3405,26 +3418,27 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5448</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3432,10 +3446,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>522427</v>
+        <v>522094</v>
       </c>
       <c r="R27" t="n">
-        <v>7077371</v>
+        <v>7077617</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3470,13 +3484,17 @@
           <t>2023-10-02</t>
         </is>
       </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3495,7 +3513,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112495174</v>
+        <v>112495159</v>
       </c>
       <c r="B28" t="n">
         <v>56430</v>
@@ -3539,10 +3557,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>522448</v>
+        <v>521837</v>
       </c>
       <c r="R28" t="n">
-        <v>7077421</v>
+        <v>7077579</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3579,7 +3597,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3606,10 +3624,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112495169</v>
+        <v>112495187</v>
       </c>
       <c r="B29" t="n">
-        <v>56430</v>
+        <v>89549</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3622,38 +3640,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>522163</v>
+        <v>522100</v>
       </c>
       <c r="R29" t="n">
-        <v>7077259</v>
+        <v>7077317</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3686,11 +3700,6 @@
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3828,10 +3837,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112495171</v>
+        <v>112495185</v>
       </c>
       <c r="B31" t="n">
-        <v>56430</v>
+        <v>89549</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3844,38 +3853,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>522120</v>
+        <v>522105</v>
       </c>
       <c r="R31" t="n">
-        <v>7077301</v>
+        <v>7077442</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3908,11 +3913,6 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">

--- a/artfynd/A 18948-2023.xlsx
+++ b/artfynd/A 18948-2023.xlsx
@@ -1015,10 +1015,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112495191</v>
+        <v>112495164</v>
       </c>
       <c r="B5" t="n">
-        <v>90799</v>
+        <v>56430</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,34 +1031,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1968</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>522424</v>
+        <v>522103</v>
       </c>
       <c r="R5" t="n">
-        <v>7077382</v>
+        <v>7077453</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1091,6 +1095,11 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1117,10 +1126,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112495157</v>
+        <v>112495191</v>
       </c>
       <c r="B6" t="n">
-        <v>56430</v>
+        <v>90799</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1133,38 +1142,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>1968</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>521286</v>
+        <v>522424</v>
       </c>
       <c r="R6" t="n">
-        <v>7077616</v>
+        <v>7077382</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1197,11 +1202,6 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1228,10 +1228,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112495182</v>
+        <v>112495157</v>
       </c>
       <c r="B7" t="n">
-        <v>90826</v>
+        <v>56430</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1240,38 +1240,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>522424</v>
+        <v>521286</v>
       </c>
       <c r="R7" t="n">
-        <v>7077374</v>
+        <v>7077616</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1304,6 +1308,11 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1330,10 +1339,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112495160</v>
+        <v>112495182</v>
       </c>
       <c r="B8" t="n">
-        <v>56430</v>
+        <v>90826</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1342,42 +1351,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>4366</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>holmflobackarna, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>521847</v>
+        <v>522424</v>
       </c>
       <c r="R8" t="n">
-        <v>7077543</v>
+        <v>7077374</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1410,11 +1415,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1441,7 +1441,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112495164</v>
+        <v>112495160</v>
       </c>
       <c r="B9" t="n">
         <v>56430</v>
@@ -1485,10 +1485,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>522103</v>
+        <v>521847</v>
       </c>
       <c r="R9" t="n">
-        <v>7077453</v>
+        <v>7077543</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
